--- a/data_year/zb/科技/测绘地理信息部门生产完成情况.xlsx
+++ b/data_year/zb/科技/测绘地理信息部门生产完成情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,306 +473,54 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21949</v>
+        <v>47019</v>
       </c>
       <c r="C2" t="n">
-        <v>3327</v>
+        <v>42421</v>
       </c>
       <c r="D2" t="n">
-        <v>60459</v>
+        <v>36539</v>
       </c>
       <c r="E2" t="n">
-        <v>133</v>
+        <v>541</v>
       </c>
       <c r="F2" t="n">
-        <v>2867</v>
+        <v>38345</v>
       </c>
       <c r="G2" t="n">
-        <v>128816</v>
+        <v>771571</v>
       </c>
       <c r="H2" t="n">
-        <v>42136</v>
+        <v>158384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26176</v>
+        <v>22998</v>
       </c>
       <c r="C3" t="n">
-        <v>3568</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91434</v>
-      </c>
+        <v>30775</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>126</v>
+        <v>591</v>
       </c>
       <c r="F3" t="n">
-        <v>8980</v>
+        <v>101720</v>
       </c>
       <c r="G3" t="n">
-        <v>173816</v>
+        <v>791088</v>
       </c>
       <c r="H3" t="n">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>32363</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2443</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59137</v>
-      </c>
-      <c r="E4" t="n">
-        <v>105</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2731</v>
-      </c>
-      <c r="G4" t="n">
-        <v>228913</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58681</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29734</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2858</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65970</v>
-      </c>
-      <c r="E5" t="n">
-        <v>446</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15179</v>
-      </c>
-      <c r="G5" t="n">
-        <v>293358</v>
-      </c>
-      <c r="H5" t="n">
-        <v>76233</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>47508</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2530</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47272</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4185</v>
-      </c>
-      <c r="G6" t="n">
-        <v>492554</v>
-      </c>
-      <c r="H6" t="n">
-        <v>144031</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>54053</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2845</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19906</v>
-      </c>
-      <c r="E7" t="n">
-        <v>234</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12626</v>
-      </c>
-      <c r="G7" t="n">
-        <v>399330</v>
-      </c>
-      <c r="H7" t="n">
-        <v>203191</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>44455</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3960</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20664</v>
-      </c>
-      <c r="E8" t="n">
-        <v>368</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17203</v>
-      </c>
-      <c r="G8" t="n">
-        <v>581000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>81363</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>55254</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4110</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38114</v>
-      </c>
-      <c r="E9" t="n">
-        <v>285</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10213</v>
-      </c>
-      <c r="G9" t="n">
-        <v>542059</v>
-      </c>
-      <c r="H9" t="n">
-        <v>96364</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>55089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5312</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22847</v>
-      </c>
-      <c r="E10" t="n">
-        <v>328</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14852</v>
-      </c>
-      <c r="G10" t="n">
-        <v>908401</v>
-      </c>
-      <c r="H10" t="n">
-        <v>138988</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>47019</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42421</v>
-      </c>
-      <c r="D11" t="n">
-        <v>36539</v>
-      </c>
-      <c r="E11" t="n">
-        <v>541</v>
-      </c>
-      <c r="F11" t="n">
-        <v>38345</v>
-      </c>
-      <c r="G11" t="n">
-        <v>771571</v>
-      </c>
-      <c r="H11" t="n">
-        <v>158384</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22998</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30775</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>591</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101720</v>
-      </c>
-      <c r="G12" t="n">
-        <v>791088</v>
-      </c>
-      <c r="H12" t="n">
         <v>106707</v>
       </c>
     </row>
